--- a/bulletin/macroeconomics/static/macroeconomics/tables/socio_economic_development_forecast.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/socio_economic_development_forecast.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95020CEB-F2A4-43F7-9A0B-ECE85182EF5D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721568CE-F995-4E89-9F2E-3A3FB84351AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t>(оценка)</t>
-  </si>
-  <si>
     <t>Прим.</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>в % к ВВП</t>
+  </si>
+  <si>
+    <t>2023 (оценка)</t>
   </si>
 </sst>
 </file>
@@ -142,10 +142,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -426,17 +432,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I16"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C1">
-        <v>2023</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" t="s">
+        <v>28</v>
       </c>
       <c r="D1">
         <v>2024</v>
@@ -454,331 +466,343 @@
         <v>2028</v>
       </c>
       <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>138360</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>221518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>138360</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1">
-        <v>221518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>104</v>
+      </c>
+      <c r="D3">
+        <v>105</v>
+      </c>
+      <c r="E3">
+        <v>105.5</v>
+      </c>
+      <c r="F3">
+        <v>105.1</v>
+      </c>
+      <c r="G3">
+        <v>105.7</v>
+      </c>
+      <c r="H3">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>251.5</v>
       </c>
       <c r="D4">
-        <v>105</v>
+        <v>300.8</v>
       </c>
       <c r="E4">
-        <v>105.5</v>
+        <v>340.8</v>
       </c>
       <c r="F4">
-        <v>105.1</v>
+        <v>380.7</v>
       </c>
       <c r="G4">
-        <v>105.7</v>
+        <v>427.6</v>
       </c>
       <c r="H4">
-        <v>106</v>
+        <v>481.6</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>251.5</v>
-      </c>
-      <c r="D5">
-        <v>300.8</v>
-      </c>
-      <c r="E5">
-        <v>340.8</v>
-      </c>
-      <c r="F5">
-        <v>380.7</v>
-      </c>
-      <c r="G5">
-        <v>427.6</v>
-      </c>
-      <c r="H5">
-        <v>481.6</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12520</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15222</v>
+      </c>
+      <c r="E5" s="1">
+        <v>17025</v>
+      </c>
+      <c r="F5" s="1">
+        <v>18770</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20810</v>
+      </c>
+      <c r="H5" s="1">
+        <v>23133</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12520</v>
-      </c>
-      <c r="D6" s="1">
-        <v>15222</v>
-      </c>
-      <c r="E6" s="1">
-        <v>17025</v>
-      </c>
-      <c r="F6" s="1">
-        <v>18770</v>
-      </c>
-      <c r="G6" s="1">
-        <v>20810</v>
-      </c>
-      <c r="H6" s="1">
-        <v>23133</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45144</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45081</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45019</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45019</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45019</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45144</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45081</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45019</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45019</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45019</v>
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>90.5</v>
+      </c>
+      <c r="D7">
+        <v>95.4</v>
+      </c>
+      <c r="E7">
+        <v>103.3</v>
+      </c>
+      <c r="F7">
+        <v>99.4</v>
+      </c>
+      <c r="G7">
+        <v>101</v>
+      </c>
+      <c r="H7">
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>90.5</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>95.4</v>
+        <v>80</v>
       </c>
       <c r="E8">
-        <v>103.3</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>99.4</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="H8">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>-2.7</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>-2.5</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>-2.4</v>
       </c>
       <c r="F9">
-        <v>80</v>
-      </c>
-      <c r="G9">
-        <v>80</v>
-      </c>
-      <c r="H9">
-        <v>80</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
-        <v>-2.7</v>
-      </c>
-      <c r="D10">
-        <v>-2.5</v>
-      </c>
-      <c r="E10">
-        <v>-2.4</v>
-      </c>
-      <c r="F10">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="I10" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>80855</v>
+      </c>
+      <c r="D11" s="1">
+        <v>83563</v>
+      </c>
+      <c r="E11" s="1">
+        <v>90204</v>
+      </c>
+      <c r="F11" s="1">
+        <v>89677</v>
+      </c>
+      <c r="G11" s="1">
+        <v>93069</v>
+      </c>
+      <c r="H11" s="1">
+        <v>96535</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>80855</v>
+        <v>45661</v>
       </c>
       <c r="D12" s="1">
-        <v>83563</v>
+        <v>47112</v>
       </c>
       <c r="E12" s="1">
-        <v>90204</v>
+        <v>52965</v>
       </c>
       <c r="F12" s="1">
-        <v>89677</v>
+        <v>53054</v>
       </c>
       <c r="G12" s="1">
-        <v>93069</v>
+        <v>49019</v>
       </c>
       <c r="H12" s="1">
-        <v>96535</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45255</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>45661</v>
+        <v>35194</v>
       </c>
       <c r="D13" s="1">
-        <v>47112</v>
+        <v>36451</v>
       </c>
       <c r="E13" s="1">
-        <v>52965</v>
+        <v>37239</v>
       </c>
       <c r="F13" s="1">
-        <v>53054</v>
+        <v>36623</v>
       </c>
       <c r="G13" s="1">
-        <v>49019</v>
+        <v>44050</v>
       </c>
       <c r="H13" s="1">
-        <v>45255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>51280</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1">
-        <v>35194</v>
+        <v>6242</v>
       </c>
       <c r="D14" s="1">
-        <v>36451</v>
+        <v>2616</v>
       </c>
       <c r="E14" s="1">
-        <v>37239</v>
-      </c>
-      <c r="F14" s="1">
-        <v>36623</v>
+        <v>3003</v>
+      </c>
+      <c r="F14">
+        <v>735</v>
       </c>
       <c r="G14" s="1">
-        <v>44050</v>
-      </c>
-      <c r="H14" s="1">
-        <v>51280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+        <v>-1731</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
-        <v>6242</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2616</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3003</v>
+      <c r="B15" s="4"/>
+      <c r="C15">
+        <v>2.8</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>735</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-1731</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>2.8</v>
-      </c>
-      <c r="D16">
-        <v>0.9</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
         <v>0.2</v>
       </c>
-      <c r="G16">
+      <c r="G15">
         <v>-0.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
